--- a/xlsx/country_comparison/conjoint_c_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_c_positive.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">Conjoint: &gt;&gt;Left&lt;&lt; vs. Right</t>
   </si>
   <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;Left+G&lt;&lt; vs. Right</t>
+    <t xml:space="preserve">Conjoint: &gt;&gt;Left+GCS&lt;&lt; vs. Right</t>
   </si>
 </sst>
 </file>
@@ -392,19 +392,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.545454545454545</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="C2" t="n">
-        <v>0.588235294117647</v>
+        <v>0.53921568627451</v>
       </c>
       <c r="D2" t="n">
-        <v>0.727272727272727</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="E2" t="n">
-        <v>0.521739130434783</v>
+        <v>0.36</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.53353428786737</v>
       </c>
     </row>
     <row r="3">
@@ -412,19 +412,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.464285714285714</v>
+        <v>0.742857142857143</v>
       </c>
       <c r="C3" t="n">
-        <v>0.428571428571429</v>
+        <v>0.531645569620253</v>
       </c>
       <c r="D3" t="n">
-        <v>0.529411764705882</v>
+        <v>0.784615384615385</v>
       </c>
       <c r="E3" t="n">
-        <v>0.482758620689655</v>
+        <v>0.523809523809524</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.538402457757296</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_c_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_c_positive.xlsx
@@ -392,19 +392,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.694444444444444</v>
+        <v>0.44954128440367</v>
       </c>
       <c r="C2" t="n">
-        <v>0.53921568627451</v>
+        <v>0.599502487562189</v>
       </c>
       <c r="D2" t="n">
-        <v>0.736842105263158</v>
+        <v>0.707865168539326</v>
       </c>
       <c r="E2" t="n">
-        <v>0.36</v>
+        <v>0.480769230769231</v>
       </c>
       <c r="F2" t="n">
-        <v>0.53353428786737</v>
+        <v>0.53448275862069</v>
       </c>
     </row>
     <row r="3">
@@ -412,19 +412,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.742857142857143</v>
+        <v>0.57679180887372</v>
       </c>
       <c r="C3" t="n">
-        <v>0.531645569620253</v>
+        <v>0.552112676056338</v>
       </c>
       <c r="D3" t="n">
-        <v>0.784615384615385</v>
+        <v>0.710144927536232</v>
       </c>
       <c r="E3" t="n">
-        <v>0.523809523809524</v>
+        <v>0.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.538402457757296</v>
+        <v>0.537051184110008</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_c_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_c_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -29,13 +35,10 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;Left&lt;&lt; vs. Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;Left+GCS&lt;&lt; vs. Right</t>
+    <t xml:space="preserve">Left preferred to Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left+GCS preferred to Right</t>
   </si>
 </sst>
 </file>
@@ -386,45 +389,54 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.44954128440367</v>
+        <v>0.513294203712634</v>
       </c>
       <c r="C2" t="n">
-        <v>0.599502487562189</v>
+        <v>0.543145069828104</v>
       </c>
       <c r="D2" t="n">
-        <v>0.707865168539326</v>
+        <v>0.474501311635273</v>
       </c>
       <c r="E2" t="n">
-        <v>0.480769230769231</v>
+        <v>0.582095496172965</v>
       </c>
       <c r="F2" t="n">
-        <v>0.53448275862069</v>
+        <v>0.726521203594978</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.516683014328921</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.57679180887372</v>
+        <v>0.522486365888942</v>
       </c>
       <c r="C3" t="n">
-        <v>0.552112676056338</v>
+        <v>0.563015631485034</v>
       </c>
       <c r="D3" t="n">
-        <v>0.710144927536232</v>
+        <v>0.583534360400842</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.555535004809154</v>
       </c>
       <c r="F3" t="n">
-        <v>0.537051184110008</v>
+        <v>0.695972447908683</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.537479470210701</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_c_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_c_positive.xlsx
@@ -398,22 +398,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.513294203712634</v>
+        <v>0.526744678818866</v>
       </c>
       <c r="C2" t="n">
-        <v>0.543145069828104</v>
+        <v>0.554631037010084</v>
       </c>
       <c r="D2" t="n">
-        <v>0.474501311635273</v>
+        <v>0.461936153760673</v>
       </c>
       <c r="E2" t="n">
-        <v>0.582095496172965</v>
+        <v>0.589695953177259</v>
       </c>
       <c r="F2" t="n">
-        <v>0.726521203594978</v>
+        <v>0.731198467369944</v>
       </c>
       <c r="G2" t="n">
-        <v>0.516683014328921</v>
+        <v>0.502331437183276</v>
       </c>
     </row>
     <row r="3">
@@ -421,22 +421,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.522486365888942</v>
+        <v>0.537006670604126</v>
       </c>
       <c r="C3" t="n">
-        <v>0.563015631485034</v>
+        <v>0.571679214018527</v>
       </c>
       <c r="D3" t="n">
-        <v>0.583534360400842</v>
+        <v>0.567964951603196</v>
       </c>
       <c r="E3" t="n">
-        <v>0.555535004809154</v>
+        <v>0.574463582091767</v>
       </c>
       <c r="F3" t="n">
-        <v>0.695972447908683</v>
+        <v>0.688061211057675</v>
       </c>
       <c r="G3" t="n">
-        <v>0.537479470210701</v>
+        <v>0.509257854485393</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_c_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_c_positive.xlsx
@@ -398,22 +398,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.526744678818866</v>
+        <v>0.52683741382294</v>
       </c>
       <c r="C2" t="n">
-        <v>0.554631037010084</v>
+        <v>0.553370178630955</v>
       </c>
       <c r="D2" t="n">
-        <v>0.461936153760673</v>
+        <v>0.461813580959669</v>
       </c>
       <c r="E2" t="n">
-        <v>0.589695953177259</v>
+        <v>0.589647109907091</v>
       </c>
       <c r="F2" t="n">
-        <v>0.731198467369944</v>
+        <v>0.709373349943712</v>
       </c>
       <c r="G2" t="n">
-        <v>0.502331437183276</v>
+        <v>0.502313710715308</v>
       </c>
     </row>
     <row r="3">
@@ -421,22 +421,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.537006670604126</v>
+        <v>0.536968215249695</v>
       </c>
       <c r="C3" t="n">
-        <v>0.571679214018527</v>
+        <v>0.574995057219097</v>
       </c>
       <c r="D3" t="n">
-        <v>0.567964951603196</v>
+        <v>0.567817797914446</v>
       </c>
       <c r="E3" t="n">
-        <v>0.574463582091767</v>
+        <v>0.574464670730597</v>
       </c>
       <c r="F3" t="n">
-        <v>0.688061211057675</v>
+        <v>0.68952301872868</v>
       </c>
       <c r="G3" t="n">
-        <v>0.509257854485393</v>
+        <v>0.509223975923072</v>
       </c>
     </row>
   </sheetData>
